--- a/PSA Coolant Heater LIN.xlsx
+++ b/PSA Coolant Heater LIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomde\Documents\GitHub\Lin-E2008-Heater-a-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68EA197-7A6C-4786-BB9A-5746DC8A3100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972C349B-4FAA-445F-ABB7-90265C176071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>No HV response</t>
   </si>
@@ -129,6 +129,31 @@
   </si>
   <si>
     <t>Bit 7 -NOT valid 0-6 is HV volt bitsx5 -48</t>
+  </si>
+  <si>
+    <t>AC compressor</t>
+  </si>
+  <si>
+    <t>AC compressor?</t>
+  </si>
+  <si>
+    <t>PTC Control</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>0xFE</t>
+  </si>
+  <si>
+    <t>0x80 - 0FF
+&gt;0x80 - ON</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>100ms</t>
   </si>
 </sst>
 </file>
@@ -170,13 +195,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,7 +248,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$2</c:f>
+              <c:f>Sheet1!$AO$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -293,7 +321,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$7</c:f>
+              <c:f>Sheet1!$AN$3:$AN$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -317,7 +345,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AN$3:$AN$7</c:f>
+              <c:f>Sheet1!$AO$3:$AO$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -470,7 +498,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AP$3:$AP$7</c:f>
+              <c:f>Sheet1!$AQ$3:$AQ$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -494,7 +522,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AN$3:$AN$7</c:f>
+              <c:f>Sheet1!$AO$3:$AO$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1270,13 +1298,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>167005</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>471805</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
@@ -1570,611 +1598,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="B2" sqref="B2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1">
-        <v>0</v>
-      </c>
+      <c r="T1" s="1"/>
       <c r="U1" s="1">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1">
         <v>1</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>2</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>3</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>4</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>5</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>6</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>7</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1">
-        <v>0</v>
-      </c>
       <c r="AE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1">
         <v>1</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>2</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>3</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>4</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>5</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>6</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
       <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
       <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>80</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>46</v>
       </c>
-      <c r="AD2">
-        <f>HEX2DEC(T2)</f>
+      <c r="AE2">
+        <f>HEX2DEC(U2)</f>
         <v>62</v>
       </c>
-      <c r="AE2">
-        <f t="shared" ref="AE2:AK2" si="0">HEX2DEC(U2)</f>
-        <v>0</v>
-      </c>
       <c r="AF2">
+        <f t="shared" ref="AF2:AL2" si="0">HEX2DEC(V2)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="AJ2">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="AK2">
         <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>4</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
       <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
         <v>11</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>11</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD7" si="1">HEX2DEC(T3)</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE7" si="1">HEX2DEC(U3)</f>
         <v>63</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE7" si="2">HEX2DEC(U3)</f>
-        <v>0</v>
-      </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF7" si="3">HEX2DEC(V3)</f>
+        <f t="shared" ref="AF3:AF7" si="2">HEX2DEC(V3)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG7" si="3">HEX2DEC(W3)</f>
         <v>240</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG7" si="4">HEX2DEC(W3)</f>
-        <v>0</v>
-      </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH7" si="5">HEX2DEC(X3)</f>
+        <f t="shared" ref="AH3:AH7" si="4">HEX2DEC(X3)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI7" si="5">HEX2DEC(Y3)</f>
         <v>17</v>
       </c>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI7" si="6">HEX2DEC(Y3)</f>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ7" si="6">HEX2DEC(Z3)</f>
         <v>17</v>
       </c>
-      <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ7" si="7">HEX2DEC(Z3)</f>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK7" si="7">HEX2DEC(AA3)</f>
         <v>167</v>
       </c>
-      <c r="AK3">
-        <f t="shared" ref="AK3:AK7" si="8">HEX2DEC(AA3)</f>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL7" si="8">HEX2DEC(AB3)</f>
         <v>255</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>167</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>150</v>
       </c>
-      <c r="AP3">
-        <f>_xlfn.BITAND(AM3,127)</f>
+      <c r="AQ3">
+        <f>_xlfn.BITAND(AN3,127)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
         <v>5</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
       <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
         <v>11</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>11</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>176</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>200</v>
       </c>
-      <c r="AP4">
-        <f t="shared" ref="AP4:AP7" si="9">_xlfn.BITAND(AM4,127)</f>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ7" si="9">_xlfn.BITAND(AN4,127)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>6</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
       <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
         <v>11</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>11</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <f t="shared" si="7"/>
         <v>185</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>185</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>250</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <f t="shared" si="9"/>
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>11</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
       <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
         <v>11</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>11</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <f t="shared" si="7"/>
         <v>195</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>195</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>300</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <f t="shared" si="9"/>
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>12</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
         <v>8</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
       <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
         <v>11</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>11</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <f t="shared" si="7"/>
         <v>206</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <f t="shared" si="8"/>
         <v>255</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>206</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>350</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>24</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="L10" t="s">
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>30</v>
       </c>
     </row>
